--- a/tests/Stubs/products-not-validate-import-file.xlsx
+++ b/tests/Stubs/products-not-validate-import-file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">EAN</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">DESCRIPCION</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_CATEGORIA</t>
+    <t xml:space="preserve">CATEGORIA</t>
   </si>
   <si>
     <t xml:space="preserve">PRECIO</t>
@@ -52,13 +52,25 @@
     <t xml:space="preserve">A fake description</t>
   </si>
   <si>
+    <t xml:space="preserve">Categoria uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/11/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fake Name 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Categoria dos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fake Name 3</t>
   </si>
   <si>
     <t xml:space="preserve">Fake Branch 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categoria tres</t>
   </si>
   <si>
     <t xml:space="preserve">Fake Name 4</t>
@@ -185,7 +197,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -232,8 +244,8 @@
       <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>999999</v>
@@ -241,8 +253,8 @@
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>44146</v>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,13 +262,13 @@
         <v>12345627289</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>999999</v>
@@ -264,8 +276,8 @@
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v>44146</v>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,13 +285,13 @@
         <v>1234627289</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>999999</v>
@@ -287,8 +299,8 @@
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="n">
-        <v>44146</v>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,10 +308,10 @@
         <v>1246272809</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>9</v>
@@ -310,8 +322,8 @@
       <c r="G5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>44146</v>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -319,16 +331,16 @@
         <v>12462728091</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="H6" s="3"/>
     </row>
